--- a/adam_smith.xlsx
+++ b/adam_smith.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="263">
   <si>
     <t xml:space="preserve">Paper </t>
   </si>
@@ -76,6 +76,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> is a prominent figure in the world of television programming.</t>
     </r>
@@ -98,6 +99,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The government doesn’t have to prove that your merging and becoming bigger is bad; you have to prove that your merging is somehow a benefit. People merge—they get bigger—to provide a lower cost and gain market share to gain profit for the consumers. </t>
     </r>
@@ -117,6 +119,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-“</t>
     </r>
@@ -134,6 +137,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">”
 - “watch out for the overgrown standing army of monopolies”
@@ -155,6 +159,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -229,6 +234,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -247,6 +253,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- essay on moral sentiments</t>
     </r>
@@ -266,6 +273,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 
 Democratic Party</t>
@@ -339,6 +347,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">You run a coal plant; you make the profits from selling the electricity that the coal plant produces, but you don’t pay the price for the carbon you put in the air. So it is not going to happen through the free market alone because of what even </t>
     </r>
@@ -356,6 +365,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">recognized: There are </t>
     </r>
@@ -386,6 +396,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">We are ushering our power sector into a clean energy future that is good for our environment and good for our economy, as Senator CARPER said. In the early 2020s, it could be cheaper to build new renewables from scratch than to continue operating old, dirty, coal-fired power plants. That is not a conspiracy; that is called competition. </t>
     </r>
@@ -404,6 +415,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The cost of solar has fallen 50 to 60 percent over the last 5 to 6 years. In fact, wind and solar are generally cheaper than coal and nuclear energy right now.</t>
     </r>
@@ -416,14 +428,41 @@
     <t xml:space="preserve">WASHINGTON, TUESDAY, DECEMBER 11, 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">1776 wasn’t just a revolutionary year for America. It was a revolutionary year for free enterprise, for American capitalism, free market capitalism, as well, because it was in that year that Scottish moral philosopher Adam Smith penned its intellectual foundation in his opus magnum, ‘‘The Wealth of Nations.’’ Prosperity would never, never be the same. We now have over 200 years of history in this country proving that free market capitalism produces the greatest wealth for the greatest number of people.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1776 wasn’t just a revolutionary year for America. It was a revolutionary year for free enterprise, for American capitalism, free market capitalism, as well, because it was in that year that Scottish moral philosopher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">penned its intellectual foundation in his opus magnum, ‘‘The Wealth of Nations.’’ Prosperity would never, never be the same. We now have over 200 years of history in this country proving that free market capitalism produces the greatest wealth for the greatest number of people.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -442,6 +481,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-‘‘The Wealth of Nations.’’</t>
     </r>
@@ -461,6 +501,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> 
 Republican Party</t>
@@ -470,13 +511,10 @@
     <t xml:space="preserve">WASHINGTON, WEDNESDAY, NOVEMBER 28, 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Same as WASHINGTON, WEDNESDAY, DECEMBER 19, 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">WASHINGTON, TUESDAY, JUNE 26, 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">WASHINGTON, TUESDAY, APRIL 24, 2018</t>
+    <t xml:space="preserve">**WASHINGTON, TUESDAY, APRIL 24, 2018</t>
   </si>
   <si>
     <t xml:space="preserve">Adam Smith is spinning in his grave, wondering how the fossil fuel industry gets such subsidies. As a matter of fact, he is spinning so fast that he would qualify for a subsidy under the tax policies, which Republicans put in place.</t>
@@ -485,10 +523,39 @@
     <t xml:space="preserve">- Adam Smith is spinning in his grave</t>
   </si>
   <si>
+    <t xml:space="preserve">Didn’t find it on the paper! The part that mentiond Adam smith</t>
+  </si>
+  <si>
     <t xml:space="preserve">WASHINGTON, WEDNESDAY, APRIL 11, 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">The first one I would like to point out because it comes from Adam Smith—Adam Smith, who wrote ‘‘The Wealth of Nations,’’ the great Scottish political economist whom many people in the Chicago school and people who believe in this idea of trickle-down economics look to and the invisible hand that he so famously wrote about. But the quote on the top here, I think, is a very clear demonstration of his view in the late 1700s in spite of his perspective on many things, and it is the first quote on the chart: ‘‘The disposition to admire, and almost to worship, the rich and the powerful, and to despise, or, at least, to neglect persons of poor and mean condition is the great and most universal cause of the corruption of our moral sentiments’’—Adam Smith.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The first one I would like to point out because it comes from Adam Smith—Adam Smith, who wrote ‘‘The Wealth of Nations,’’ the great Scottish political economist whom many people in the Chicago school and people who believe in this idea of trickle-down economics look to and the invisible hand that he so famously wrote about. But the quote on the top here, I think, is a very clear demonstration of his view in the late 1700s in spite of his perspective on many things, and it is the first quote on the chart: ‘‘The disposition to admire, and almost to worship, the rich and the powerful, and to despise, or, at least, to neglect persons of poor and mean condition is the great and most universal cause of the corruption of our moral sentiments’’—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">-‘‘The Wealth of Nations,’’
@@ -496,13 +563,43 @@
 -‘‘The disposition to admire, and almost to worship, the rich and the powerful, and to despise, or, at least, to neglect persons of poor and mean condition is the great and most universal cause of the corruption of our moral sentiments’’</t>
   </si>
   <si>
+    <t xml:space="preserve">Mark DeSaulnier
+Democratic Party</t>
+  </si>
+  <si>
     <t xml:space="preserve">WASHINGTON, WEDNESDAY, MARCH 14, 2018</t>
   </si>
   <si>
     <t xml:space="preserve">WASHINGTON, TUESDAY, MARCH 13, 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. ARRINGTON. Mr. Speaker, the year 1776 marked a turning point not only in American history, but in human history. While brave patriots here in America were affirming their right to equal representation and, ultimately, revolution, a Scottish philosopher named Adam Smith was revolutionizing the way we think about economics. ‘‘The Wealth of Nations’’ was the book he wrote where he extolled the virtues of free markets and free trade, showing how all benefit from robust competition and an open marketplace. Mr. Speaker, because of tax cuts and regulatory reform, returning to freer markets in this country, we have this economy off high centre and growing at a rate we haven’t seen in over a decade. While some of my friends across the aisle would like to dispute this, the results speak for themselves.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mr. ARRINGTON. Mr. Speaker, the year 1776 marked a turning point not only in American history, but in human history. While brave patriots here in America were affirming their right to equal representation and, ultimately, revolution, a Scottish philosopher named </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">was revolutionizing the way we think about economics. ‘‘The Wealth of Nations’’ was the book he wrote where he extolled the virtues of free markets and free trade, showing how all benefit from robust competition and an open marketplace. Mr. Speaker, because of tax cuts and regulatory reform, returning to freer markets in this country, we have this economy off high centre and growing at a rate we haven’t seen in over a decade. While some of my friends across the aisle would like to dispute this, the results speak for themselves.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">-‘‘The Wealth of Nations’’
@@ -510,6 +607,10 @@
 -free trade</t>
   </si>
   <si>
+    <t xml:space="preserve">Jodey Arrington
+Republican</t>
+  </si>
+  <si>
     <t xml:space="preserve">WASHINGTON, MONDAY, NOVEMBER 27, 2017</t>
   </si>
   <si>
@@ -518,49 +619,89 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You have consistently stressed that the objective of tax reform should be to enhance prospects for increased economic growth and household incomes. We agree with this objective, which is consistent with the traditional </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">norms of public finance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">going back to Adam Smith.</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You have consistently stressed that the objective of tax reform should be to enhance prospects for increased economic growth and household incomes. We agree with this objective, which is consistent with the traditional norms of public finance going back to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">John Cornyn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Republican Party</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">WASHINGTON, TUESDAY, OCTOBER 10, 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">These early settlers were driven by religious freedom. As they began to build their farms, their shops, and trade and build ships along the coast and our harbours, we reach the year of 1776. Then, of course, we know the Declaration was on July 4 of that year. But there is another seminal event, Mr. Speaker, and that is Adam Smith published his treatise on free enterprise capitalism. The name of it is ‘‘The Wealth of Nations.’’</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">These early settlers were driven by religious freedom. As they began to build their farms, their shops, and trade and build ships along the coast and our harbours, we reach the year of 1776. Then, of course, we know the Declaration was on July 4 of that year. But there is another seminal event, Mr. Speaker, and that is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">published his treatise on free enterprise capitalism. The name of it is ‘‘The Wealth of Nations.’’</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -579,24 +720,104 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-The name of it is ‘‘The Wealth of Nations.’’</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Steve King
+Republican Party</t>
+  </si>
+  <si>
     <t xml:space="preserve">WASHINGTON, TUESDAY, OCTOBER 3, 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">At the hearing today, I heard my Republican colleague, Mr. HUNTER, chairman of the committee, quote the great free market idol, Adam Smith. All too often, the free marketers of the world read those paragraphs that serve their purposes, but if they were to read the next few paragraphs in Adam Smith’s work, ‘‘The Wealth of Nations,’’ they would read that Adam Smith said very clearly at the period of time he was writing that it was absolutely essential for the British Government to protect the British merchant marine and the British maritime industry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So let’s pay attention here. Adam Smith said to the British Government: Maintain the sabotage laws. Do not allow the maritime industry for Great Britain to go away. So we should be paying attention to the master of the free market system, who wasn’t totally for the free market but understood the necessity of protecting certain industries that are critical to the future of a country.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">At the hearing today, I heard my Republican colleague, Mr. HUNTER, chairman of the committee, quote the great free market idol, Adam Smith. All too often, the free marketers of the world read those paragraphs that serve their purposes, but if they were to read the next few paragraphs in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">work, ‘‘The Wealth of Nations,’’ they would read that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> said very clearly at the period of time he was writing that it was absolutely essential for the British Government to protect the British merchant marine and the British maritime industry.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">So let’s pay attention here. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> said to the British Government: Maintain the sabotage laws. Do not allow the maritime industry for Great Britain to go away. So we should be paying attention to the master of the free market system, who wasn’t totally for the free market but understood the necessity of protecting certain industries that are critical to the future of a country.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">-, ‘‘The Wealth of Nations,
 - “Maintain the sabotage laws. Do not allow the maritime industry for Great Britain to go away”</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Jan Schakowsky
+Democratic Party</t>
+  </si>
+  <si>
     <t xml:space="preserve">WASHINGTON, THURSDAY, SEPTEMBER 7, 2017</t>
   </si>
   <si>
@@ -666,6 +887,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">It was on this very day, December 16, 1773, that patriots at Boston Harbor expressed their displeasure with a foreign power’s influence over what they felt was an essential commodity. Participants of the Boston Tea Party, many of whom were small-business owners, well versed in and practitioners of the teachings of </t>
     </r>
@@ -683,6 +905,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">and, yes, free market economics, never would have envisioned that one commodity should be arbitrarily discriminated against over another, especially by their own government. We have an opportunity with this commodity to make a difference.</t>
     </r>
@@ -705,6 +928,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,
 Republican Party</t>
@@ -745,6 +969,1821 @@
   </si>
   <si>
     <t xml:space="preserve">WASHINGTON, THURSDAY, JUNE 26, 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, JUNE 3, 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, JULY 22, 2011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Just a few weeks ago as he was under oath before the Small Business Committee, I asked him his opinion on several of the top economists that America and the world have produced throughout history. A couple of those people would be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and John Maynard Keynes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, JULY 25, 2011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">America’s Founders knew the importance of moral language, which is why they asserted our unalienable right to the pursuit of happiness, not to the possession of property. Similarly, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, the father of freemarket economics, had a philosophy that transcended the mere wealth of nations. His greatest book was ‘‘The Theory of Moral Sentiments,’’ a defense of a culture that could support true freedom and provide the greatest life satisfaction.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Davis Ryan
+Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, AUGUST 16, 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, SEPTEMBER 15, 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, NOVEMBER 15, 2011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">What I worry about is that its Draconian effect will have a chain reaction on seniors that will cause a tremendous crash. I am concerned we are about to shred the social contract. Let me tell you what the chained CPI is. It would actually cut Social Security by over $100 billion over the next 10 years. It does it by changing the cost of living as calculated. It is based on a theory. It is based on social engineering, some kind of abstract concepts about human behavior, that invisible hand that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">talks about. I worry that this invisible hand will actually pinch Social Security. It assumes consumers will substitute lower cost items for what they normally purchase; that is, if the price of apples increases, they will go buy oranges. I am afraid what we are doing is we are going to buy lemons.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Ann Mikulski
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, NOVEMBER 30, 2011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrote in ‘‘Wealth of Nations’’ about how they had the wool industry going on up in England and Scotland and in Ireland, and so they should be the ones there that were shearing sheep and turning that into clothing, and put the wool products that they did so well on ships and sail them down to Portugal, where they were a lot better at raising grapes and turning that into wine. And bring back a load of wine and a ship full of wool, and that was the division of labor that he described. And both countries were better off.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gold got mined out by the Incas and the Aztecs, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">h wrote about that. And he said the Spanish galleons went back across the ocean with having cut out the cost of labor— he didn’t say by stealing the gold from the Incas and the Aztecs. He said they cut out the cost of labor. And once they removed a significant cost of the labor of producing the gold from them, they dumped it into the markets in Europe, and the price of gold went down</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, DECEMBER 8, 2011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Actually, the real free marketeers around here would never be against more information and better and more effective information going to the consumer. I mean, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, the one who wrote—oh, my goodness, I can’t believe I can’t remember the name of that great book—but the one in which he describes the invisible hand and how markets move and people operate and their individual interest yields the economy. He said in that book that consumer information is key to a good market operating. So I don’t know why people wouldn’t want a good market to operate.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith Maurice Ellison
+Democratic–Farmer–Labor Party (DFL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*WASHINGTON, TUESDAY, DECEMBER 13, 2011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The Balanced Budget Amendment being proposed, once implemented, will make it possible that for the first time since 1957, the national debt can be reduced. This must begin to occur to reassure the nation’s creditors that the U.S. intends to honor its obligations with real money, not with a ‘‘pretended payment’’ that economist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">warned against.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">William Wilson
+*Member of Parliament (MP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, FEBRUARY 3, 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, FEBRUARY 6, 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, FEBRUARY 9, 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 17, 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, JUNE 15, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And what did Alexander Tytler tell us out of Scotland back as a contemporary of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">? And in summary terms, when the public understands that they can vote themselves benefits from the public treasury, on that day democracy ceases to exist. That was Alexander Tytler in about the year 1776, a long time back.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Daniel Benjamin Maffei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Democratic Party</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, JUNE 17, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Well, let’s see. Not only did the 13 original colonies declare their independence from Great Britain, from the king, but that was the year that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">published his great work called ‘‘Wealth of Nations.’’ My book, I believe, is 1,057 pages long, and you can read through there carefully and learn what it’s like to make pins and nails and how to utilize the division of labor to get more efficiency, and everybody benefits. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">had the industrial revolution figured out in 1776 at the beginning of the first signs of the dawn of the industrial revolution</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">In 1776, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">touched a nerve and educated the marketplace of Western civilization, and they began to embrace the idea of free enterprise capitalism, division of the invisible hand managing our economy rather than the king ordering it to be done or, in a later century, the next century, Karl Marx directing that it all come out of central command, from top down. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">vision was this, that if you have only one brand of bread on the shelf and you have a set price for that loaf of bread, you can take the price up well above what it’s worth. If people are going to eat bread, they will have to pay more than it might be costing, if there’s competition. As soon as company A is competed against by company B, what can you use to get a market share? Well, you can bake a loaf of bread that you sell a little cheaper</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, JUNE 23, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I doubt if there is anybody out there in the White House that can say, Yes, I read ‘‘Wealth of Nations.’’ I understand it. I understand the division of labor. I understand the comparative advantage that Adam Smith wrote about. No, they understand Karl Marx, but they don’t understand </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, JUNE 29, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">So we’ve seen this vitality in this giant petri dish of America every component that we can imagine that has been positive has been here in this country, put here by providence—the natural resources, the understanding of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smithian </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">component of economic theory, the supply and demand invisible hand component of economic theory, the Age of Reason from Greece and the Roman law that found their way through the Dark Ages and emerged as the Age of Enlightenment, all here in the United States of America. It was unlimited natural resources that go along with it.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, JULY 19, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And we have a President who does not see the economic continuum from production through the expenditures that builds the way Adam Smith saw it. But here’s this—and Adam Smith had a beautiful approach to this—I trust the President, if he read ‘‘Wealth of Nations,’’ he surely didn’t adhere to it, but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">book from 1776— what a glorious time that was in our history of Western Civilization. One of the foundational principles of free enterprise was articulated in such a clear way by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">in ‘‘Wealth of Nations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This is free enterprise. This is the beauty of this system that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">so clearly articulated in Wealth of Nations that every American should understand deeply</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">‘‘Wealth of Nations,’’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, NOVEMBER 18, 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, DECEMBER 14, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">What I think he meant was that the defining fact of the 19th century was that England and the United States had a value system which believed in the individual, in liberty, democracy, and markets. It was a value system that grew out of the Scottish Enlightenment, people such as John Locke, Hutcheson, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Judd Alan Gregg
+Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, DECEMBER 16, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The first is from The Wealth of Nations in 1776</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: ‘‘The subjects of every State ought to contribute toward the support of the government, as nearly as possible, in proportion to their respective abilities; that is, in proportion to the revenue which they respectively enjoy under the protection of the State.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Luther Jackson
+ Democratic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, FEBRUARY 14, 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, APRIL 1, 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, APRIL 8, 2011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">So what do we have here today? Another Republican congressional resolution, which says let’s go back to that era where the biggest companies, the monopolies, defy the one lesson that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ADAM SMITH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">taught us, which is that monopolies and oligopolies are incapable of enjoying anything but the respect of those who are already in the wealthy class while ignoring those who are in the consumer class. That’s their history. That’s the number one lesson of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ADAM SMITH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, that we must beware of oligopolies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Let me give you, though, another lesson from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in the Wealth of Nations. Here is what he said: ‘‘The Member of Parliament who supports every proposal for strengthening the monopoly is sure to acquire not only the reputation of understanding trade but great popularity and influence with an order of men whose numbers and wealth render them of great importance. ‘‘If he opposes them, on the contrary, and still more if he has the authority to be able to thwart them, neither the most acknowledged probity nor the greatest rank nor the greatest public services can protect him from the most infamous abuse and detraction, from personal insults, nor sometimes from real danger arising from the insolent outrage of furious and disappointed monopolists.’’ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">warned us of monopolies, of oligopolies as the greatest threat to capitalism. That is what we are debating today, to ensure that the Internet is open, not just to the monopolists but to every entrepreneur, the tens of thousands of them out there who have been creating the wealth, creating the opportunities, creating the jobs, creating the open communication that has revolutionized our world.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‘‘The Member of Parliament who supports every proposal for strengthening the monopoly is sure to acquire not only the reputation of understanding trade but great popularity and influence with an order of men whose numbers and wealth render them of great importance.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, MAY 4, 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, JULY 8, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, JULY 15, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And creating socialized medicine is not a solution for an economic problem. That will make the problem worse, not better. And we are, on one side of us, we are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> freemarketeers on the Republican side of the aisle. These are the Keynesian economists on the Democrat side of the aisle, those who want to grow government, nationalize eight huge entities in America; that all happened on the watch of President Obama, the nationalization of eight huge entities</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, JULY 17, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This is dependency. It goes the wrong way. It takes us to the left. It takes us to a dependency. It takes us to a myopic image of a utopian version where they have always thought—and let’s just say in that part of Western Europe your utopian thinkers have emerged. They have always drawn these kind of schematics to come up with a better way to be able to find this utopia on Earth. They completely and diametrically are opposed to the philosophies of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and the philosophies that emerge in the Old and in the New Testament</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, JULY 31, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">We should not begrudge them for that. If we think they’re making too much money, we should get in the business, compete against them, gather in some of that profit, and then lower our prices. Competition lowers prices. That, we know. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> wrote about that in 1776 in Wealth of Nations; and it’s been true well before he recognized it; and it’s been true every day since; and it always will be true</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, SEPTEMBER 16, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And so this is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith. This is Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">that laid this out. Even though you can read through all 1,057 pages of The Wealth of Nations, you’ll not find him use the expression ‘‘the invisible hand.’’ But it’s the invisible hand, indeed, that best describes the vision of Adam Smith in 1776, having printed and published his book The Wealth of Nations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mr. KING of Iowa. A moment here before I yield. On this side of the aisle are the people that believe in free enterprise, the invisible hand, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s vision, Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dream, and the idea that you cannot manage an economy. You have got to let the supply and demand manage the economy. That’s the difference. We believe in free enterprise. You folks do not. And if you disagree, I will certainly yield to you, but not one of you is going to stand and take this argument on.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, SEPTEMBER 25, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The invisible hand, as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">famously described, and actually didn’t, about how free enterprise works with providing the incentives and managing the supply. So it works like this: If the grocery store runs out of bread, the store owner understands he has to have more bread or otherwise people will go someplace else to shop. And if there’s a cheaper, better bread at the neighboring store, that store owner is not going to sell his bread. So that’s how bakeries get started, how grocery stores grow and shrink, how chain stores begin, how manufacturing begins.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, OCTOBER 13, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And talking about the politicization of health care for perks and privileges, the part that’s left out is the patronage. Patronage goes with perks and privileges. And when you see that happen in government, then it slows down the operations and it shifts the balance. And we’re wondering, why isn’t government logical? It’s because perks, privileges and patronage take government off kilter. That’s why we’re a free enterprise system. That’s why we have been a free enterprise system. And that’s why this Nation has been strong and powerful and successful and our economy has eclipsed that of the world is because we left the standards of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">in place for dozens and dozens of years, for generations and generations.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, SATURDAY, NOVEMBER 7, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, NOVEMBER 10, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, NOVEMBER 17, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, NOVEMBER 19, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, JANUARY 21, 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MARCH 4, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">You don’t have to read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">to know that markets cannot thrive with uncertainty. What employers really need from Washington is the assurance that the Democrats’ massive Big Government tax-and-spend agenda isn’t going to drive them out of business</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Etheridge
+United Kingdom Independence Party </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, APRIL 16, 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, APRIL 20, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">taught us that the point of a robust capital market is to direct capital to its best and highest use, where, combined with labor, it will produce the goods and services most valued by society. Asset bubbles are a problem, but at least mortgagebacked securities enabled people to live in their overvalued houses.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcia Carolyn Kaptur
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, MAY 12, 2010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1-Whereas the English philosopher John Locke, through his monumental works on social contract theory and natural law entitled ‘‘An Essay Concerning Human Understanding’’, ‘‘First Treatise on Government’’, and ‘‘Second Treatise on Government’’, greatly influenced the American Revolution; Whereas Scottish economist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">‘‘Wealth of Nations’’ greatly contributed to the competition and free market principles of the United States; Whereas the English lawyer Sir William Blackstone’s ‘‘Commentaries on the Laws of England’’ had a lasting influence on the development of United States common law and legal institutions;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Eliot Lance Engel
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Democratic Party</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2-And as we watched, there are two different paths one can follow. The road that’s being travelled by the Obama administration and the Pelosi House and the Reid Senate is a road down the path of Keynesian economics on steroids. And the path that we should have followed, and the path that we’ve got to get back to, is more of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">free market component of our free enterprise economy.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Todd Akin
+Republican Party
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, MAY 21, 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, JUNE 10, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Democrats will claim this bill will bring gas prices down, but in doing so they are counting on Americans to forget a basic law of economics: raising taxes on those who produce something leads to an increase in the price of products they sell. This was true in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> pin factory. It is true for energy companies today. More taxes mean higher prices.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitch McConnell 
+Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, JUNE 12, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The sad truth is that the bulk of the EADS tanker will be built in Europe. Yet, current policies prohibit the Pentagon from considering the U.S. industrial base during a major defense acquisition. This must change. We must have the ability to build the weapons necessary to defend ourselves to be a great nation. Even </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">agrees.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald Anthony Manzullo
+Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, JUNE 20, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, JULY 10, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The father of modern capitalism, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, overall wanted to limit the role of government in free markets. In fact, in ‘‘The Wealth of Nations’’ Smith said speculators served many useful functions in a free market and many of his observations are still true today. But Smith knew there had to be limits, writing: ‘‘those exertions of the natural liberty of a few individuals, which may endanger the security of the whole society, are, and ought to be, restrained by the laws of all governments.’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Isadore Lieberman
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, JULY 15, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This gold is not coming back on the market. Supply and demand affects the price of gold as much today as it did when </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrote about the Spanish galleons going down to Central America and hauling back those galleons loads of gold. They dumped that on the market in Europe and the price of gold plummeted because they took the price of labor out of it by actually stealing it from the Central Americans, Native Americans</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, JULY 23, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">There are those who will object to the bill because they think that government should never interfere in free markets. The father of capitalism, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, noted in ‘‘The Wealth of Nations,’’ the great classic text on capitalism, that even in a free market, there needs to be some limits. He wrote: Those exertions of the natural liberty of a few individuals which may endanger the security of the whole society are and ought to be restrained by the laws of all governments.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">‘‘The Wealth of Nations”
+- Those exertions of the natural liberty of a few individuals which may endanger the security of the whole society are and ought to be restrained by the laws of all governments</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, JULY 24, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I was also thinking about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> when he wrote in his famous book ‘‘Wealth of Nations,’’ published in 1776, how it was that the cost of everything that we produce is the sum total of the capital and the labor required to produce whatever the commodity is. And he wrote about how the price of gold plummeted in Europe when the Spanish galleons returned from the New World loaded with gold. But he didn’t say because of supply and demand strictly. He said it was because they had figured out how to take the price of labor out of the production of gold. They stole the gold, but the effect was the labor got cheap.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">It reminds me of the old days when the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">theory said: Well, let anyone sell any medicine they want, and if it is a bad medicine, and you die from it, your family will learn from it and you won’t buy it again. It is an awfully harsh view of the world, and not a view most Americans agree with.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, JULY 29, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Instead, we have people that have their hands on the gavel that don’t believe in free market economy. They never sat down and read through </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">‘‘Wealth of Nations’’ word-forword and understood it. They don’t live to appreciate it. They think there are a handful of intellectual elitists in the world that can manage the economy</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, SEPTEMBER 22, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, NOVEMBER 20, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, DECEMBER 10, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, DECEMBER 11, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The irony is that economists learn in their very first class in school that it was a trade war which brought us our initial freedom as a country, and that semi-protectionism later helped build the United States. England started a ‘‘trade war’’ with the Colonies by adopting the Navigation Act of 1651 that required all trade be carried in British vessels. Manufacturing was forbidden in the Colonies, even the printing of the Bible, and then the Townsend Acts drafted by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">placed heavy import duties on a wide range of items. All of this precipitated the Boston Tea Party that started the Revolution.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry Reid
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, FEBRUARY 10, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Now, if you go back and look at wealthy nations and see what </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">has to say about the value of any product, he will say and he has written there very extensively that the value of any product is the sum total of the capital and the labor that it takes to produce it, deliver it, market it, and get it into the hands of the consumer. So if you buy a gallon of milk, you add up so many ounces of milk is for the capital that it took, and the balance of it is for the labor that it took for it to deliver. And that is how </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> analyzed it</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, FEBRUARY 13, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MARCH 12, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, the father of modern economics, pointed out that a government that raises taxes in response to a recession makes exactly the same mistake as a shopkeeper who raises prices in response to a sales slump. California has again ignored that warning. It is set to impose the biggest State tax increase in history on April 1. That is going to be $13 billion from California families, proportionately a little bit less than the President’s taxes, but it is in the same ballpark.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tom McClintock
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Republican Party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I made payroll out for 28 years. I transferred a lot of those costs onto my customers. I had to. And if you didn’t do that, in the first place you couldn’t cash flow a business; you would never get it started in the first place. You would never get it to expand. You’ve got to have capital. By the way, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">made this real clear. This is something I like to tell the people that will not respond to this charge. There are two components to the cost of everything we buy, it is the cost of capital and the cost of labor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">And the other component is labor. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrote it this way: ‘‘The price of gold plummeted in Europe as the Spanish galleons began arriving on the continent from the new world.’’ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> didn’t say that because they stole the gold from the Incas and the Aztecs. He described it as they lowered the cost of labor for getting that gold out of the ground and getting it into the marketplace.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-‘‘The price of gold plummeted in Europe as the Spanish galleons began arriving on the continent from the new world.’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, MARCH 17, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Now, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">said the sum total of the cost of anything that you produce or buy is the cost of the capital plus the cost of the labor</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, APRIL 1, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I don’t think </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">would have voted for the TARP bill. The gentleman from Alabama did. I voted against it. But I do think that economist </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">—not our colleague from Washington—would vote ‘‘yes’’ on this bill because those who provide the capital should control—or have at least some control—of the enterprise. And that includes some control over compensation.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad ShermanDemocratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, APRIL 23, 2009      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, APRIL 30, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, MAY 1, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get Congress, the President and the Supreme Court to stick with the specific responsibilities assigned to them by the Constitution. Allow the free market to work as it should. (Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wealth of Nations. The Founding Fathers relied on this wisdom.) It would be sticky for a while but Americans have always been tough. If we want America to survive then we have to fix the problem. The Constitution has the answers. America will crumble if we do not take serious action. Thank you for your efforts!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Michael Dean Crapo
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Republican Party</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, MAY 4, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">He believed in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">invisible hand and worked tirelessly to convince everyone else about the benefits of supply-side economics.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Llewellyn Kyl 
+Republican Party</t>
   </si>
 </sst>
 </file>
@@ -754,11 +2793,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -778,14 +2818,35 @@
     <font>
       <sz val="13"/>
       <color rgb="FF2E74B5"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF111111"/>
-      <name val="Segoe UI"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -794,11 +2855,7 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -806,8 +2863,9 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -822,19 +2880,21 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -878,16 +2938,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,6 +2963,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -919,11 +2975,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -935,7 +2991,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1016,7 +3084,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1024,798 +3092,1929 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="28.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
+      <c r="A5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="35.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>43</v>
+      <c r="A17" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="11"/>
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="11"/>
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>52</v>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>57</v>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>61</v>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F26" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>65</v>
+      <c r="A27" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="14" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="13" t="s">
-        <v>68</v>
-      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>78</v>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="48.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="12" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>104</v>
-      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="A42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="36.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="7" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="12"/>
+    </row>
+    <row r="105" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="7" t="s">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="12"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="7" t="s">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="12"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="12"/>
+    </row>
+    <row r="114" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="12"/>
+    </row>
+    <row r="117" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="12"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="12"/>
+    </row>
+    <row r="123" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="12"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="12"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="12"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="12"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="12"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="12"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="12"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="12"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="12"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="12"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="12"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="12"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="12"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="12"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="12"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="12"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="12"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="12"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="12"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="12"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="12"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="12"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="12"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="12"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="12"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="12"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="12"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/adam_smith.xlsx
+++ b/adam_smith.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="431">
   <si>
     <t xml:space="preserve">Paper </t>
   </si>
@@ -2784,6 +2784,2057 @@
   <si>
     <t xml:space="preserve">Jon Llewellyn Kyl 
 Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, MAY 6, 2009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Jack Kemp was a self-taught man. He read the economic classics, beginning with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wealth of Nations. He also read and studied the Declaration of Independence. Both, as it happens, were published in 1776, year 1 of our country’s independence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kemp taught himself by reading the economic classics beginning with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wealth of Nations, but he also read and studied the Declaration of Independence, both as it happens, were, published in 1776, year one of America’s independence. Kemp mastered . . . and spelled out for us . . . the great insight that economic freedom and political freedom are intertwined and integrated parts of the order of human freedom. He reminded us that families, faith, and education—not government—are the true sources of the qualities of character without which there can be neither economic nor political freedom.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Paul Davis Ryan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Republican Party
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, MAY 12, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, JULY 27, 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, SEPTEMBER 6, 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, SEPTEMBER 7, 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, SEPTEMBER 19, 2007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The only reason to vote against this bill at this point is not because of disagreement on some of the specifics. They will evolve as we go forward, particularly in the PAYGO response. But if you believe this is something that should be left to the market, and I do not believe that the market can or should be asked to handle terrorism. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">is one of the great intellectual contributors to thought in this world, but I don’t think he knew much about terrorism, luckily for him. I do not think that the free market was adopted or is adaptable to murderous attacks of the sort we had on September 11.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Barney Frank 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Democratic Party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, SEPTEMBER 25, 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, OCTOBER 17, 2007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">e, if parents take responsibility for their children’s health insurance that this invisible hand that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrote about, this consumer’s guide to how the health care in America will be developed, how it will evolve, how the research will be done, how the development will be done, how we will be marketing health insurance and how we will be providing services, this best system we have in the world is something we want to preserve.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, OCTOBER 18, 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, NOVEMBER 13, 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, NOVEMBER 15, 2007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">There is a time for Government. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, in his great book ‘‘The Wealth of Nations,’’ in 1776, said there is a place for Government. If he were writing that book today, he would talk about the need for Government throughout America in many different ways. One thing we need to do is do something with FHA, with Fannie and Freddie, which are organizations we set up in Congress to help people buy homes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">‘‘The Wealth of Nations,’’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, DECEMBER 13, 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, FEBRUARY 14, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, FEBRUARY 29, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, MARCH 14, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, APRIL 2, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The reduction in industrial investment that took place January, February, March, April and onwards of 2007 was the lead indicator for this economic inactivity that we’re seeing today. That was item number one, the understanding that there would be tax increases, this understanding that we know, according to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and Wealth of Nations from 1776 when he said ‘‘the cost of any goods is the cost of the labor that it takes to produce it and the capital required to support the labor.’’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- Wealth of Nations
+-‘‘the cost of any goods is the cost of the labor that it takes to produce it and the capital required to support the labor.’’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, APRIL 8, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">My goodness, I think </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> would be rolling over in his grave to hear this concept of economics. This is Komisar economics where nobody can lose, except for the taxpayer in the next generation who has to pay this bill. Remember, this $20 billion is going to be paid by somebody because it is being spent around here in the operation of the Government. And who is going to pay it? Well, it is obviously not going to be the homebuilder, the large corporations which ran up these huge profits. They are actually going to take that money in, take it in as income.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Well, as I said, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">would be a little stunned to find this is the way the market has worked and the Government of the United States—which is allegedly the Government of a capitalist system—functions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">William Gregory Steube
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Republican Party</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, APRIL 10, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, APRIL 23, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Then, as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ADAM SMITH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">said, there are two components to the price of everything. One is the cost of the labor and the other is the cost of the capital. The capital price went up, then the cost of goods and services went up, and capital investment went down.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. And when I hear about </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ADAM SMITH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">being talked about, the only ‘‘invisible hand’’ that is operating in our energy markets is that invisible handshake that happened in the White House between the oil company executives when they created this current energy policy.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">And, as they invested in those countries, their profits rose, and the jobs in America, according to I guess Adam Smith, the invisible hand pulled them and grabbed them to China. And when they couldn’t do it in China anymore, they pulled them and grabbed them to Vietnam. And when they couldn’t do it in Vietnam, they pulled them to Bangladesh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-‘‘invisible hand’’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Walz
+Democratic–Farmer–Labor Party (DFL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, MAY 6, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 8, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, MAY 19, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, MAY 21, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">As someone who voted for every free trade agreement since being elected to Congress in 1992, this section is not protectionism. Back in 1776, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">argued in his celebrated ‘‘Wealth of Nations’’; that ‘‘it is of importance that the kingdom should depend as little as possible upon its neighbors for the manufactures necessary for its defense.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Donald Anthony Manzullo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Republican Party</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 22, 2008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">argued in 1776: The directors of . . . [joint-stock] companies, . . . being the managers rather of other people’s money than of their own, it cannot well be expected, that they should watch over it with the same anxious vigilance with which the partners in a private copartnery frequently watch over their own.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Kahikina Akaka
+Democratic Party</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This farm bill runs counter to all the concepts of a free market society from which this country has benefited so dramatically and which we believe to be true and effective ways to produce product and control costs and to make product more cost-effective for the people who use it. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">was right; Karl Marx was wrong. Under this bill, one would think Karl Marx was right and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">was wrong.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">William Gregory Steube
+Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, JUNE 3, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, JUNE 24, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, JUNE 25, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, JULY 20, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, SEPTEMBER 13, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, SEPTEMBER 24, 2004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">He has always been a free trader, a believer in Ricardo and the doctrine of comparative advantage, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. You know, the common sense notion that if you can produce the textiles in England—the sheep and the wool and the textiles—and you can raise the grapes in Portugal to produce the wine, it makes good sense for England to trade the textiles for the wine, and the English can drink and the Portuguese can wear wool.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Byron Dorgan
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, SEPTEMBER 30, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, SATURDAY, OCTOBER 9, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, NOVEMBER 16, 2004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Very few come to the floor to talk about the doctrine of comparative advantage and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and the kind of things that I have had the privilege of hearing from Senator HOLLINGS.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, FEBRUARY 9, 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, FEBRUARY 10, 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MARCH 10, 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, MAY 16, 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, MAY 18, 2005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The intent of Congress is to maintain the vibrant industrial base so that we may remain the strongest Nation on Earth. Even the founder of modern-day capitalism and free trade, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, recognized the need for a nation to be able to depend upon its own industrial and agricultural base and not rely on foreign sources for its defense needs. We cannot maintain our role as global leader on a pure services-based economy.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 19, 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 26, 2005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Even the founder of modern-day capitalism and free trade, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, recognized the need for a nation to be able to depend upon its own industrial and agricultural base and not rely on foreign sources for its defense needs. We cannot maintain our role as global leader on a pure services-based economy.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, JUNE 5, 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, JUNE 18, 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, JUNE 25, 2003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">My Republican colleagues, on the other hand, seem to feel that the invisible hand of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and the hand of God are the same thing but our free market is not an all-powerful system without limitations.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Loretta Lorna Sanchez
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, JULY 9, 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, JULY 14, 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, JULY 22, 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, JULY 24, 2003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I would point out that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrote this in about 1776, that ‘‘if you can buy it cheaper than you can make it, you ought to buy it; if you can make it cheaper than you can buy it, you ought to make it.’’ That is what this is about, this Free Trade Agreement.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, SEPTEMBER 30, 2003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The idea of such tuition grants is not new. For almost two centuries various proposals for the idea have come from such figures as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Thomas Paine, John Stewart Mill, and more recently Milton Friedman. Its appeal bridges ideological differences. Yet it had never been tried. Quite possibly because the need for it has never been so demonstrably critical as now</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">John Lester Hubbard Chafee
+Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, OCTOBER 29, 2003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Some adopt the rhetorical convention that criticism of China’s trade policies amounts to protectionism. But </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">himself would not have recognized China as a free market bulwark. The term that he would have used to describe China’s economic policies is mercantilistic, and mercantilism has no place in today’s global marketplace which is guided by a rules-based system where ‘‘beggar thy neighbor’’ is not part of the equation</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Xavier Becerra
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, SATURDAY, NOVEMBER 22, 2003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The people of Great Britain also might see some familiar traits in Americans. We’re sometimes faulted for a naive faith that liberty can change the world. If that’s an error it began with reading too much John Locke and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. Americans have, on occasion, been called moralists who often speak in terms of right and wrong. That zeal has been inspired by examples on this island, by the tireless compassion of Lord Shaftesbury, the righteous courage of Wilberforce, and the firm determination of the Royal Navy over the decades to fight and end the trade in slaves.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESIDENT BUSH      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, DECEMBER 9, 2003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Free trade and free markets are essentially about making trade easier by allowing the market to balance needs, supply and demand. We are engaged in a battle to tear down trade barriers around the world in an effort to promote jobs, competition and greater prosperity for all countries involved. Since </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">explained the benefits of free trade in his great work ‘‘The Wealth of Nations’’, thoughtful policy makers have understood the need to reduce these barriers. The famous economist Joseph Schumpeter once proclaimed that capitalism relies on the free flow of information and goods</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-‘‘The Wealth of Nations’’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Feeney
+Republican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, FEBRUARY 26, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MARCH 11, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, MARCH 31, 2004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">In the past, and for the last actually 150 or so years, a lot of people have been wedded to the concept of free trade as described by various economists, from Ricardo and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and we adhere, most of us, to the concept that free trade is good in the long run and produces in fact a more viable economy. That has been the mantra many people have chanted.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Tancredo
+Republican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, APRIL 27, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, APRIL 28, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 6, 2004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">They would be dismayed to see how little heed has been paid to the warning of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, the founding high priest of capitalism, that without fair rules of the game to keep markets honest that capitalism could be misaligned into a system that provided insufficient protection for the legitimate interests of workers and consumers alike.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tammy Baldwin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Democratic Party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, MAY 11, 2004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The American people deserve the credit for that, but there is still one anchor on the neck of the economy. The biggest drag on the neck of the economy is the IRS. 230 years ago, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrote that the market was the invisible hand of the economy. I agree with that. And 230 years later, we can say that the visible foot on the throat of the economy is the IRS code</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">John Elmer Linder
+Republican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, MAY 12, 2004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I remember a Congressman coming into my district in the early 1980s making a pitch for a national health care act. And I remember in that room of about 80 people, in the end I was the only one of the employers in the room that provided health insurance for my employees, and I remember fighting off that effort of going for a national health care because we need more individual responsibility so that we have more individual decisions made, in the vision of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and the invisible hand</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, MAY 19, 2004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mr. REID. Mr. President, a great book, certainly a classic, was written in 1776 by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">called ‘‘The Wealth Of Nations.’’ This was the first time it was put down on paper that someone understood, from an economist’s point of view, what the free enterprise system was and could be, and that is the basis for our country, this free enterprise system we hear so much about, capitalism, free markets. That is, in effect, what this debate is all about</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">‘‘The Wealth Of Nations.’’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, FRIDAY, MAY 21, 2004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Let me be extra clear about one thing: This bill will help markets for credit work better. As </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">told us, the free flow of information is an absolute prerequisite of an efficient market. For markets to work, buyers must know and understand what they are buying. When our bill becomes law, credit card holders—who are simply buyers of credit in the marketplace— will have a better understanding of what exactly they are buying into, for the long term. The result can only be that the credit markets will better serve us, and that our households and our Nation will be on stronger financial footing.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard Joseph Durbin
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MARCH 15, 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MARCH 22, 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, MARCH 28, 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economists have always been interested in the economics of the arts. Adam Smith is a well-known economist. He was also a serious, but littleknown essayist on painting, dancing, and poetry. Keynes was a passionate devotee of painting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pete V. Domenici
+Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MARCH 29, 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, APRIL 24, 2001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">That is a definition that can be applied to our country as we see a global market develop in all sorts of commodities. It becomes very clear that the theories of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">apply in our society and in our world today. There are certain products and certain capabilities which one society is better at than other societies. Fortunately, our society is best at those activities which produce the most wealth and the most prosperity. A large percentage of those products and capabilities involve technology. They involve intellectual capacity, and they require a strong education system to succeed.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, APRIL 26, 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 10, 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 17, 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, OCTOBER 13, 1999</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">These arguments are no truer today than they were at the turn of the century. The current trend towards concentration in agriculture is not the product of the ‘‘free market,’’ nor of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">invisible hand. For starters, with no effective competition in the major commodity markets, these can hardly be held up as models of free market competition. What they really stand for is market failure. In any event, these near-monopolies were not created by the free market at all. They were created by government, just like the railroad monopolies of the 19th century. Instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">invisible hand, we are seeing the hand of multinational food conglomerates, in the words of Iowa farmer Jim Braun, ‘‘acting inside the glove of government.’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul David Wellstone
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, OCTOBER 27, 1999</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Go right back to Alexander Hamilton in the earliest days. In the earliest days, you had that doctrine of market forces, comparative advantage, and David Ricardo. That is what they said, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">—you go ahead, the little fledgling colony that now had won its independence, you produce best what you can and ship it back to the mother country and the mother country in turn will produce and ship back what we can produce best—the doctrine of comparative advantage.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernest Frederick “Fritz” Hollings
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, OCTOBER 28, 1999</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Everybody knows Korea have used the Japanese system of controlled capitalism, and it works. That was the American system under Alexander Hamilton. We point out time and again to the Brits, once we won our freedom in the earliest days—David Ricardo, the doctrine of comparative advantage; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, open markets, let’s go right now. The Brits corresponded with Hamilton saying: You fledgling colony, now that you have won your freedom, let’s trade back to the mother country with what you produce best and we will trade back with you what we produce best.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, MONDAY, NOVEMBER 1, 1999</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The other side of the aisle has been wanting to do away with all kinds of trade agreements and market forces, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">has long since gone in this global competition. It ought to depend on market forces. They depend on protection. Of course, so does the other side of the aisle when it comes to intellectual property, movies, books, copyrighting, when it comes to protecting the talents of the individual producers, the authors, writers, singers, and performers. Fine, let’s have protection for them. But for those who work by the sweat of their brow, that is protectionism and a terrible thing. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, NOVEMBER 2, 1999</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Information technology may be giving birth, too, to an economy that is close to the theoretical models of capitalism imagined by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and his admirers. Those models assumed that the world was made up of rational individuals who were able to pursue their economic interests in the light of perfect information and relatively free from government and geographical obstacles. Geography is becoming less of a constraint; governments are becoming less interventionist; and information is more easily and rapidly available.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, NOVEMBER 9, 1999</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">One suggestion for the date of the new holiday was June 5, for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">birthday. But the most votes went for Nov. 9, the day the wall fell. So today I proclaim that date Freedom Day.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Christopher Cox
+Republican Party</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The whole purpose of this bill is to say that those who get deeply into debt should have to repay their debts, even if they are poor. I understand that. I do not agree with certain provisions of it, but I understand it. We can all agree that we ought to have full and broad disclosure before someone signs up for a credit card so they do not get mired in that debt. That is not a Democratic or Republican principle, it is an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">free market principle: full information.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">We are simply providing information. This is good old </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> American competition, and companies will compete for people based on who has the best rates.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Chuck Schumer
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Democratic Party</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, WEDNESDAY, NOVEMBER 17, 1999</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">So I withdraw my objection to this amendment. I know it is offered in good faith. But please let my colleagues understand that if you want real disclosure—no more, just disclosure, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">economics—the only way to get it is not by an amendment that allows the industry to continue deceptive practices but, rather, by the Schumer-Santorum amendment which says, in no uncertain terms, ‘‘9.99 percent’’—whatever the interest rate is— 24-point type, in large letters</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, FEBRUARY 10, 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, MARCH 14, 2000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Now, some people say, well, it is the market. Let the market work. Well, let the market, if the market works in a true market form. I am a firm believer in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. I am a strong believer in the philosophy of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and capitalism and the market. But it is an unfair advantage in the market if we let a cartel go in. The cartel is not a concept of the market, and that is what is happening to your gasoline prices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">If we had a true market form the way that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">talked about a true market, we would not have a cartel out there, competition would be allowed to thrive, and we would not have this kind of situation occurring. The administration has got to recognize they do not have an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type of playing field out there, they have got a cartel. And that is what is jacking up the price to the American people. The American people deserve an aggressive behavior out of its Nation’s capital before our economy begins to crumble as a result of these oil prices.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott McInnis
+Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, MARCH 21, 2000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, Wealth of Nations, talked about a cartel, and the cartel, of course, as my colleagues know, is OPEC. So first of all, let us define what we are dealing with out there and then we will move on, because that helps us have a clear focus on the problem and then we can move on to what I think some of the solutions are.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">in my opinion, one of the greatest philosophers and writers about capitalism in this country, or in the history of the world was </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith. Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">says a cartel, he did not use the word cartel, he called it a monopoly, ‘‘A monopoly granted either to an individual or to a trading company has the same effect as a secret in trade or manufactures. The monopolists, by keeping the market constantly understocked, by never fully supplying the effectual demand, sell their commodities much above the natural price, and raise their compensation, whether they consist in wages or profit, greatly above the natural rate.’’ So we have a system in balance out there. The natural rate is what Adam Smith refers to. But the monopoly allows one to exceed the natural rate.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">We need to fund our defense. We need to fund our transportation, et cetera, et cetera. But years and years ago, because some people in this country thought that other people in this country were too wealthy and that we really ought to transfer wealth instead of through work or instead of through the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ADAM SMITH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">philosophy, we ought to transfer wealth by going to the wealthy people and saying we taxed you throughout your life; but upon death, we are going to go ahead and tax property that has already been taxed. That is a clever way to redistribute wealth. Let us just defy the age-old proven theory of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ADAM SMITH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">and the open market. Let us just transfer, redistribute wealth by taking from the rich and giving to the poor, the old Robin Hood philosophy. That is kind of the beginnings of the death tax in this country.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wealth of Nations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, APRIL 11, 2000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">This is a transfer tax. It is a defiance of the capitalistic system. It is a tax that would have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">turn in his grave. His Wealth of Nations has a special chapter devoted to just exactly this problem in a capitalistic system.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 11, 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 18, 2000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Generally speaking, what is going on here is that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">is spinning in his grave. General Electric wants us to socialize the risk but privatize the profit for them. But all of the American taxpayers are going to shoulder the burden.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Edward John Markey
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Democratic Party</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, THURSDAY, MAY 23, 1996</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mr. GENE GREEN of Texas. Mr. Speaker, to my colleague from California, 1.3 million workers will see a pay increase if the minimum wage is passed. The gentleman’s quote from U.S. News and World Report is straight out of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, but it is more like the Addams Family. hhhhhhh</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Raymond Eugene “Gene” Green
+ Democratic Party</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When wages fall, buying power drops, and all these </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">economists would then come to use and say, well, we have social problems now. So Federal Government, give us money for more police officers; Federal Government, give us more money for courts; Federal Government, give us more money to build prisons.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronald Paul Klink
+Democratic Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON, TUESDAY, MAY 23, 1995</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">As everybody knows, a little earlier this year, in part those record trade deficits led to a plummeting of the value of the United States dollar versus the yen and the German mark. The dollar has recovered a bit but still is at near post-World War II historic lows. A lot of the responsibility for this has to be put at the doorstep of those who continue to mindlessly follow a trade policy which came to maturity under the leadership of Ronald Reagan in the early 1980’s, following the dictates of an economist who has been dead for 200 years, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, a man who never saw an airplane, never even saw a steam engine. Yet this man dictates the trade policy of the United States of America. Only two countries in the world follow </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adam Smith’s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> trade theories. We are both international basket cases: the United States of America and Great Britain</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Peter Anthony DeFazio
+Democratic Party</t>
   </si>
 </sst>
 </file>
@@ -3084,7 +5135,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4784,229 +6835,1177 @@
         <v>262</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
+    <row r="125" customFormat="false" ht="36.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>265</v>
+      </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="12"/>
+      <c r="F125" s="8" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
+      <c r="A126" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
+      <c r="A127" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
+      <c r="A128" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="12"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
+      <c r="A129" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="12"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
+    <row r="130" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="12"/>
+      <c r="F130" s="8" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="12"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4"/>
-      <c r="B132" s="5"/>
+    <row r="132" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="12"/>
+      <c r="F132" s="12" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4"/>
-      <c r="B134" s="5"/>
+      <c r="A134" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="12"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
+    <row r="135" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="12"/>
+      <c r="E135" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4"/>
-      <c r="B136" s="5"/>
+      <c r="A136" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="12"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4"/>
-      <c r="B137" s="5"/>
+      <c r="A137" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4"/>
-      <c r="B138" s="5"/>
+      <c r="A138" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="12"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4"/>
-      <c r="B139" s="5"/>
+      <c r="A139" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="12"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4"/>
-      <c r="B140" s="5"/>
+    <row r="140" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="12"/>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
+      <c r="E140" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="12"/>
+      <c r="F141" s="8" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4"/>
-      <c r="B142" s="5"/>
+      <c r="A142" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4"/>
-      <c r="B143" s="5"/>
+    <row r="143" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="12"/>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
+      <c r="F143" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="12"/>
+      <c r="E144" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4"/>
-      <c r="B145" s="5"/>
+      <c r="A145" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4"/>
-      <c r="B146" s="5"/>
+      <c r="A146" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="12"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4"/>
-      <c r="B147" s="5"/>
+      <c r="A147" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4"/>
-      <c r="B148" s="5"/>
+    <row r="148" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="12"/>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4"/>
-      <c r="B149" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>307</v>
+      </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="12"/>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4"/>
-      <c r="B150" s="5"/>
+      <c r="F149" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="12"/>
+      <c r="F150" s="12" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4"/>
-      <c r="B151" s="5"/>
+      <c r="A151" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="12"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4"/>
-      <c r="B152" s="5"/>
+      <c r="A152" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="12"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="12"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="12"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="12"/>
+    </row>
+    <row r="156" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="12"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="12"/>
+    </row>
+    <row r="159" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="12"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="12"/>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="12"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="12"/>
+    </row>
+    <row r="164" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="12"/>
+    </row>
+    <row r="166" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="12"/>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="12"/>
+    </row>
+    <row r="169" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="12"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="12"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="12"/>
+    </row>
+    <row r="173" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="12"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="12"/>
+    </row>
+    <row r="180" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="12"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="12"/>
+    </row>
+    <row r="183" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="12"/>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="12"/>
+    </row>
+    <row r="190" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="12"/>
+    </row>
+    <row r="192" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="12"/>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="12"/>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="12"/>
+    </row>
+    <row r="196" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="12"/>
+    </row>
+    <row r="205" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="12"/>
+    </row>
+    <row r="209" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="12" t="s">
+        <v>430</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/adam_smith.xlsx
+++ b/adam_smith.xlsx
@@ -68,6 +68,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Alvin H. Perlmutter</t>
     </r>
@@ -109,6 +110,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">That is what capitalism is based on. That is what ADAM SMITH really wrote about.</t>
     </r>
@@ -129,6 +131,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">the invisible hand of competitive entrepreneurship is key</t>
     </r>
@@ -151,6 +154,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Amy Klobuchar</t>
     </r>
@@ -169,6 +173,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Democratic Party</t>
     </r>
@@ -244,6 +249,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">capitalist system
 </t>
@@ -265,6 +271,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cory Anthony Booker</t>
     </r>
@@ -357,6 +364,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -376,6 +384,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">externalities that have to be captured, and it is government’s job to at least make sure they are captured.</t>
     </r>
@@ -407,6 +416,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith is smiling in his grave, looking at this competition unfold. </t>
     </r>
@@ -443,6 +453,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -472,6 +483,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">free market capitalism
 </t>
@@ -493,6 +505,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Mike Rounds</t>
     </r>
@@ -544,6 +557,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -588,6 +602,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -629,6 +644,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -649,6 +665,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">John Cornyn</t>
     </r>
@@ -682,6 +699,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -711,6 +729,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">capitalism. 
 </t>
@@ -748,6 +767,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -766,6 +786,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -795,6 +816,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -897,6 +919,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -920,6 +943,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Kevin John Cramer</t>
     </r>
@@ -992,6 +1016,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1024,6 +1049,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -1066,6 +1092,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1094,6 +1121,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -1103,6 +1131,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1132,6 +1161,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smit</t>
     </r>
@@ -1164,6 +1194,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -1200,6 +1231,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1248,6 +1280,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -1268,6 +1301,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Daniel Benjamin Maffei</t>
     </r>
@@ -1301,6 +1335,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1319,6 +1354,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1348,6 +1384,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1366,6 +1403,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -1398,6 +1436,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -1421,6 +1460,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smithian </t>
     </r>
@@ -1453,6 +1493,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -1471,6 +1512,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1500,6 +1542,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1538,6 +1581,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith.</t>
     </r>
@@ -1565,6 +1609,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Adam Smith</t>
     </r>
@@ -1607,6 +1652,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ADAM SMITH </t>
     </r>
@@ -1625,6 +1671,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ADAM SMITH</t>
     </r>
@@ -1654,6 +1701,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -1672,6 +1720,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1713,6 +1762,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -1745,6 +1795,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1777,6 +1828,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -1809,6 +1861,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith. This is Adam Smith </t>
     </r>
@@ -1838,6 +1891,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s vision, Adam Smith’s </t>
     </r>
@@ -1870,6 +1924,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1902,6 +1957,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1949,6 +2005,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -1979,6 +2036,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2015,6 +2073,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -2045,6 +2104,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Democratic Party</t>
     </r>
@@ -2065,6 +2125,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith, </t>
     </r>
@@ -2105,6 +2166,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s</t>
     </r>
@@ -2141,6 +2203,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2180,6 +2243,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -2216,6 +2280,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2248,6 +2313,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -2268,6 +2334,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -2301,6 +2368,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -2330,6 +2398,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2362,6 +2431,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -2403,6 +2473,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2439,6 +2510,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2457,6 +2529,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -2483,6 +2556,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -2513,6 +2587,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Republican Party</t>
     </r>
@@ -2542,6 +2617,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2571,6 +2647,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2589,6 +2666,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -2624,6 +2702,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2656,6 +2735,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2674,6 +2754,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -2715,6 +2796,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -2745,6 +2827,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Republican Party</t>
     </r>
@@ -2768,6 +2851,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -2804,6 +2888,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -2833,6 +2918,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -2862,6 +2948,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Paul Davis Ryan
 </t>
@@ -2908,6 +2995,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -2938,6 +3026,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Democratic Party</t>
     </r>
@@ -2973,6 +3062,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3011,6 +3101,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3058,6 +3149,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3094,6 +3186,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3123,6 +3216,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3152,6 +3246,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">William Gregory Steube
 </t>
@@ -3188,6 +3283,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ADAM SMITH </t>
     </r>
@@ -3217,6 +3313,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ADAM SMITH </t>
     </r>
@@ -3268,6 +3365,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3288,6 +3386,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Donald Anthony Manzullo</t>
     </r>
@@ -3312,6 +3411,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3345,6 +3445,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3363,6 +3464,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3414,6 +3516,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3456,6 +3559,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3500,6 +3604,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3535,6 +3640,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3573,6 +3679,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3618,6 +3725,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3650,6 +3758,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3686,6 +3795,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3722,6 +3832,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3757,6 +3868,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3802,6 +3914,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3844,6 +3957,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3874,6 +3988,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Democratic Party</t>
     </r>
@@ -3906,6 +4021,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -3942,6 +4058,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -3974,6 +4091,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4009,6 +4127,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4064,6 +4183,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4105,6 +4225,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -4123,6 +4244,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -4159,6 +4281,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -4195,6 +4318,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -4227,6 +4351,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4259,6 +4384,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4291,6 +4417,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s </t>
     </r>
@@ -4324,6 +4451,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4353,6 +4481,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -4383,6 +4512,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Democratic Party</t>
     </r>
@@ -4406,6 +4536,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4441,6 +4572,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -4459,6 +4591,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4488,6 +4621,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4506,6 +4640,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4533,6 +4668,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -4562,6 +4698,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith. Adam Smith </t>
     </r>
@@ -4591,6 +4728,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ADAM SMITH </t>
     </r>
@@ -4609,6 +4747,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ADAM SMITH </t>
     </r>
@@ -4644,6 +4783,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4679,6 +4819,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4709,6 +4850,7 @@
         <color rgb="FF111111"/>
         <rFont val="Segoe UI"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Democratic Party</t>
     </r>
@@ -4732,6 +4874,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -4742,7 +4885,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, but it is more like the Addams Family. hhhhhhh</t>
+      <t xml:space="preserve">, but it is more like the Addams Family.</t>
     </r>
   </si>
   <si>
@@ -4765,6 +4908,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith </t>
     </r>
@@ -4801,6 +4945,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith</t>
     </r>
@@ -4819,6 +4964,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Adam Smith’s</t>
     </r>
@@ -4904,12 +5050,14 @@
       <color rgb="FF111111"/>
       <name val="Segoe UI"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4923,6 +5071,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4930,6 +5079,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -5137,11 +5287,11 @@
   </sheetPr>
   <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F78" activeCellId="0" sqref="F78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7965,7 +8115,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
         <v>423</v>
       </c>
